--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_13.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,452 +505,7286 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701163.6633577</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701165.3416283</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701163.6633577.png</t>
+          <t>1731876881.775417</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701165.3416283.png</t>
+          <t>1731876883.1371436</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876881.775417.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876883.1371436.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2780.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2771.75</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>134.99</v>
       </c>
       <c r="L3" t="n">
-        <v>0.32</v>
+        <v>134.65</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3400000000000034</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701166.2832065</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731701168.9033997</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701166.2832065.png</t>
+          <t>1731876884.5023925</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701168.9033997.png</t>
+          <t>1731876887.4960384</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876884.5023925.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876887.4960384.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2781.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2787.85</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>-5.949999999999818</v>
+        <v>134.99</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.21</v>
+        <v>135.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731701169.7322109</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731701171.0047812</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701169.7322109.png</t>
+          <t>1731876887.982047</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701171.0047812.png</t>
+          <t>1731876889.3739161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876887.982047.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876889.3739161.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2786</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2788.5</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>135.63</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09</v>
+        <v>135.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731701171.702913</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731701172.1477234</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701171.702913.png</t>
+          <t>1731876889.5390332</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701172.1477234.png</t>
+          <t>1731876891.200769</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876889.5390332.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876891.200769.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2791.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2787.5</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>3.699999999999818</v>
+        <v>135.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0.13</v>
+        <v>135.91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.1099999999999852</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731701172.3960593</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731701172.995458</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701172.3960593.png</t>
+          <t>1731876892.0218775</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701172.995458.png</t>
+          <t>1731876895.092806</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876892.0218775.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876895.092806.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>2786.05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2787.15</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>1.099999999999909</v>
+        <v>135.79</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04</v>
+        <v>135.55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.2399999999999807</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731701173.404363</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731701175.2434452</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701173.404363.png</t>
+          <t>1731876896.7874315</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701175.2434452.png</t>
+          <t>1731876897.4741154</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731876896.7874315.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731876897.4741154.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2784.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2782.35</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>-1.849999999999909</v>
+        <v>135.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06999999999999999</v>
+        <v>135.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2299999999999898</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731701176.578874</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731701177.4530296</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701176.578874.png</t>
+          <t>1731876898.2469912</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701177.4530296.png</t>
+          <t>1731876902.1462283</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731876898.2469912.png</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2774.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2779.2</v>
+          <t>./test_images/GAZP1731876902.1462283.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>4.449999999999818</v>
+        <v>135.72</v>
       </c>
       <c r="L9" t="n">
-        <v>0.16</v>
+        <v>136.11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3900000000000148</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731876903.5663006</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731876903.9270973</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876903.5663006.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876903.9270973.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>6999.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6991.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731876904.673282</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731876905.8142376</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876904.673282.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876905.8142376.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6988.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6988</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731876906.400733</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731876906.8845248</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876906.400733.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876906.8845248.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6992.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6988</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731876907.8170097</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731876909.7734513</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876907.8170097.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876909.7734513.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>6996</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7010.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731876913.9036746</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731876915.0947347</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876913.9036746.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876915.0947347.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>7005.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7009</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731876915.138092</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731876917.177381</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876915.138092.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876917.177381.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>7011</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7012</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731876917.636907</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731876920.3372078</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876917.636907.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731876920.3372078.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>7020</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7027.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731876922.9057362</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731876926.5524395</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876922.9057362.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876926.5524395.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>486.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1.050000000000011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731876926.81687</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731876927.5524976</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876926.81687.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876927.5524976.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>489.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.200000000000045</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731876929.0641265</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731876929.4096878</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876929.0641265.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876929.4096878.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>489.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731876929.9874587</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731876930.8646543</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876929.9874587.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876930.8646543.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>487.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731876931.1093266</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731876931.8881845</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876931.1093266.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876931.8881845.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>488.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>488.55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731876933.022467</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731876934.5156834</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876933.022467.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876934.5156834.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>489.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>489.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731876935.6222928</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731876936.5457337</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876935.6222928.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876936.5457337.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>490.9</v>
+      </c>
+      <c r="L23" t="n">
+        <v>489.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.449999999999989</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731876936.9873142</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731876938.15159</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876936.9873142.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876938.15159.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>488.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>489.35</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731876941.2230332</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731876941.2230332.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>491.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>493.35</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731876945.5017443</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731876947.0890121</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876945.5017443.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876947.0890121.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>926.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>927</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731876948.330479</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731876948.9506853</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876948.330479.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876948.9506853.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>927.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731876950.3374283</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731876951.8759494</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876950.3374283.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876951.8759494.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>928</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731876954.5203161</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731876955.9375703</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876954.5203161.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876955.9375703.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>927</v>
+      </c>
+      <c r="L29" t="n">
+        <v>929.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731876959.6476648</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731876960.2972364</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876959.6476648.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876960.2972364.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>929.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>929.8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731876962.2094843</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731876962.2094843.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>933</v>
+      </c>
+      <c r="L31" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731876963.2063296</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731876965.1932347</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876963.2063296.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876965.1932347.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="L32" t="n">
+        <v>37.755</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.02500000000000568</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731876965.7143211</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731876966.8436205</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876965.7143211.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876966.8436205.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>37.905</v>
+      </c>
+      <c r="L33" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731876967.4753816</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731876969.123744</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876967.4753816.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876969.123744.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>38.105</v>
+      </c>
+      <c r="L34" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.09500000000000597</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731876970.4676242</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731876970.9522877</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876970.4676242.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876970.9522877.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>38.29</v>
+      </c>
+      <c r="L35" t="n">
+        <v>38.315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731876971.1293435</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731876971.6643968</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876971.1293435.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876971.6643968.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="L36" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731876971.6793573</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731876972.0326166</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876971.6793573.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876972.0326166.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="L37" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731876972.9197636</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731876973.6534295</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876972.9197636.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876973.6534295.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="L38" t="n">
+        <v>38.315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.02500000000000568</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731876973.6960046</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731876973.7649071</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876973.6960046.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876973.7649071.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>38.355</v>
+      </c>
+      <c r="L39" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731876974.6086416</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731876975.7438266</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876974.6086416.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876975.7438266.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>38.165</v>
+      </c>
+      <c r="L40" t="n">
+        <v>38.185</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731876976.8556943</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731876977.1309004</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876976.8556943.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876977.1309004.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731876977.2299693</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731876977.6593378</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876977.2299693.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876977.6593378.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>38.075</v>
+      </c>
+      <c r="L42" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0449999999999946</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731876978.18354</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731876979.585962</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876978.18354.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876979.585962.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>38.165</v>
+      </c>
+      <c r="L43" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.07500000000000284</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731876979.6563466</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731876982.8348393</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876979.6563466.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876982.8348393.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="L44" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.1450000000000031</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731876982.8497715</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731876982.8920612</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876982.8497715.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731876982.8920612.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="L45" t="n">
+        <v>38.395</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731876982.9836009</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731876984.7375448</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876982.9836009.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876984.7375448.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1233.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1232.8</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6000000000001364</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731876985.0261815</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731876985.5513074</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876985.0261815.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876985.5513074.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1228.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1231.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.600000000000136</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731876986.9028192</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731876987.438901</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876986.9028192.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876987.438901.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1227</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1232</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731876987.6010253</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731876989.2018843</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876987.6010253.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876989.2018843.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1235.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1235.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.3999999999998636</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731876989.6659753</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731876990.9883256</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876989.6659753.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876990.9883256.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1235.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1234</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731876991.14497</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731876993.6532593</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876991.14497.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876993.6532593.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1235.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1236.6</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-1.399999999999864</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731876993.946888</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731876996.1514356</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876993.946888.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876996.1514356.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1233.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1221.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-11.40000000000009</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731876996.7715614</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731876997.6828318</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876996.7715614.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876997.6828318.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1219</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1218.4</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731876998.3261106</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731877000.4562197</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731876998.3261106.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877000.4562197.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1221.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1226.4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731877000.9124813</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731877001.5738204</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877000.9124813.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877001.5738204.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1230</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1228.6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.400000000000091</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731877002.281163</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877002.281163.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1233.8</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1233.2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731877002.8707335</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731877006.3991551</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877002.8707335.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877006.3991551.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="L57" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731877006.5255692</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731877006.7740989</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877006.5255692.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877006.7740989.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>80.77</v>
+      </c>
+      <c r="L58" t="n">
+        <v>80.87</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731877007.544849</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731877009.2603726</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877007.544849.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877009.2603726.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="L59" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731877010.1939507</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731877011.0654845</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877010.1939507.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877011.0654845.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731877011.8368075</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731877012.541134</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877011.8368075.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877012.541134.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="L61" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731877013.335503</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731877016.495963</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877013.335503.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877016.495963.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>81</v>
+      </c>
+      <c r="L62" t="n">
+        <v>80.33</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.6700000000000017</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731877017.0121853</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731877017.9044466</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877017.0121853.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877017.9044466.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>80.22</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731877018.4958055</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731877020.4183354</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877018.4958055.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877020.4183354.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="L64" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731877020.7077906</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731877020.7077906.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="L65" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.2700000000000102</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731877022.8471458</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731877024.4795883</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877022.8471458.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877024.4795883.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>14.187</v>
+      </c>
+      <c r="L66" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.04699999999999882</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731877025.1043947</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731877028.1560025</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877025.1043947.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877028.1560025.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>14.237</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14.249</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.01200000000000045</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731877029.1043844</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731877030.728786</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877029.1043844.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877030.728786.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>14.215</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14.206</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.009000000000000341</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731877031.3082888</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731877031.744679</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877031.3082888.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877031.744679.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>14.218</v>
+      </c>
+      <c r="L69" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01800000000000068</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731877033.0052052</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731877033.417492</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877033.0052052.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877033.417492.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>14.248</v>
+      </c>
+      <c r="L70" t="n">
+        <v>14.217</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.03099999999999881</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731877033.5534172</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731877035.2459435</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877033.5534172.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877035.2459435.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>14.264</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14.244</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731877035.7756608</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731877037.0242805</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877035.7756608.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877037.0242805.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>14.195</v>
+      </c>
+      <c r="L72" t="n">
+        <v>14.226</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.03100000000000058</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731877038.108473</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731877038.9281476</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877038.108473.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877038.9281476.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>14.153</v>
+      </c>
+      <c r="L73" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.04699999999999882</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731877039.6018806</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731877041.5502539</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877039.6018806.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877041.5502539.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>14.195</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.004999999999999005</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731877042.2217715</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877042.2217715.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>14.281</v>
+      </c>
+      <c r="L75" t="n">
+        <v>14.369</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.08799999999999919</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731877044.2008562</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731877044.388559</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877044.2008562.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877044.388559.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>104.52</v>
+      </c>
+      <c r="L76" t="n">
+        <v>104.33</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731877044.9729762</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731877045.4809833</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877044.9729762.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877045.4809833.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>104.63</v>
+      </c>
+      <c r="L77" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.2299999999999898</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731877045.876639</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731877046.4395707</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877045.876639.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877046.4395707.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>104.09</v>
+      </c>
+      <c r="L78" t="n">
+        <v>104.29</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731877048.1315725</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731877049.9672396</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877048.1315725.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877049.9672396.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>104.67</v>
+      </c>
+      <c r="L79" t="n">
+        <v>105.31</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.6400000000000006</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731877050.2058096</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731877050.7223048</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877050.2058096.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877050.7223048.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="L80" t="n">
+        <v>105.23</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.6700000000000017</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731877051.0447445</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731877051.879882</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877051.0447445.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877051.879882.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>105.19</v>
+      </c>
+      <c r="L81" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731877052.2073283</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731877053.6173437</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877052.2073283.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877053.6173437.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>105.38</v>
+      </c>
+      <c r="L82" t="n">
+        <v>105.69</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731877054.1843204</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731877054.6604004</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877054.1843204.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877054.6604004.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>105.62</v>
+      </c>
+      <c r="L83" t="n">
+        <v>105.69</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731877054.6759887</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731877054.7475471</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877054.6759887.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877054.7475471.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>105.69</v>
+      </c>
+      <c r="L84" t="n">
+        <v>105.64</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731877055.0670607</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731877056.2418602</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877055.0670607.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877056.2418602.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>105.49</v>
+      </c>
+      <c r="L85" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731877057.2006185</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731877057.3240664</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877057.2006185.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877057.3240664.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>105.27</v>
+      </c>
+      <c r="L86" t="n">
+        <v>105.32</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731877057.3945749</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731877059.1216123</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877057.3945749.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.1216123.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="L87" t="n">
+        <v>105</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731877059.3702958</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731877059.5135248</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.3702958.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.5135248.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>105</v>
+      </c>
+      <c r="L88" t="n">
+        <v>104.98</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731877059.52998</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731877059.6155255</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.52998.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.6155255.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>104.98</v>
+      </c>
+      <c r="L89" t="n">
+        <v>105</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731877059.6323733</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731877060.5871606</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877059.6323733.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877060.5871606.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>105</v>
+      </c>
+      <c r="L90" t="n">
+        <v>104.99</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731877061.0359278</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731877062.1180122</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877061.0359278.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877062.1180122.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>105.31</v>
+      </c>
+      <c r="L91" t="n">
+        <v>105.28</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731877063.067242</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731877063.067242.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="L92" t="n">
+        <v>106.15</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.4500000000000028</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731877065.0500567</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731877065.4861069</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877065.0500567.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877065.4861069.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>347.84</v>
+      </c>
+      <c r="L93" t="n">
+        <v>347.77</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731877065.60911</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731877065.9104302</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877065.60911.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877065.9104302.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="L94" t="n">
+        <v>347.79</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731877066.4261146</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731877066.9607801</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877066.4261146.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877066.9607801.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="L95" t="n">
+        <v>347.89</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2200000000000273</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731877067.11324</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1731877071.8590865</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877067.11324.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877071.8590865.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="L96" t="n">
+        <v>351.32</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-3.099999999999966</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731877071.9607909</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731877072.1561303</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877071.9607909.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877072.1561303.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="L97" t="n">
+        <v>351.39</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.2100000000000364</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731877072.6464891</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731877072.9834583</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877072.6464891.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877072.9834583.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>351.18</v>
+      </c>
+      <c r="L98" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.5699999999999932</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731877073.0325475</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731877073.2334485</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877073.0325475.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877073.2334485.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="L99" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731877073.7523823</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731877074.1634037</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877073.7523823.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877074.1634037.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>351.61</v>
+      </c>
+      <c r="L100" t="n">
+        <v>351.64</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731877075.620082</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1731877075.8762155</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877075.620082.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877075.8762155.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="L101" t="n">
+        <v>351.44</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.08999999999997499</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731877075.9542556</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731877076.0576146</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877075.9542556.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877076.0576146.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>351.77</v>
+      </c>
+      <c r="L102" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731877076.43807</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731877079.199338</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877076.43807.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877079.199338.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>351.23</v>
+      </c>
+      <c r="L103" t="n">
+        <v>350</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-1.230000000000018</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731877080.5896564</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1731877081.6905928</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877080.5896564.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877081.6905928.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>349.39</v>
+      </c>
+      <c r="L104" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.210000000000036</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731877081.706107</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731877082.3414366</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877081.706107.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877082.3414366.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="L105" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.5900000000000318</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731877083.170187</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877083.170187.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="L106" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.2099999999999795</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731701178.7776906</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701178.7776906.png</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731877086.4852052</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1731877088.3970714</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877086.4852052.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877088.3970714.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>2780.75</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2771.75</v>
+      </c>
+      <c r="M107" t="n">
+        <v>9</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731877089.458279</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731877092.6105745</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877089.458279.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877092.6105745.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>2781.9</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2787.85</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-5.949999999999818</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731877093.5720377</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731877094.9717069</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877093.5720377.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877094.9717069.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>2786</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2788.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731877095.7870767</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1731877096.2701447</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877095.7870767.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877096.2701447.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>2791.2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2787.5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3.699999999999818</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731877096.5420551</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731877097.1855547</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877096.5420551.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877097.1855547.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>2786.05</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2787.15</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.099999999999909</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731877097.6561468</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731877099.6948924</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877097.6561468.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877099.6948924.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>2784.2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2782.35</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-1.849999999999909</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731877101.2057667</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731877102.0930257</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877101.2057667.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877102.0930257.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>2774.75</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2779.2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4.449999999999818</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731877103.5353708</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877103.5353708.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>2785.75</v>
       </c>
-      <c r="J10" t="n">
-        <v>2785.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
+      <c r="L114" t="n">
+        <v>2795.2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-9.449999999999818</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731877108.4897923</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731877108.965156</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877108.4897923.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877108.965156.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>591.6</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731877109.3058443</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1731877110.9142058</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877109.3058443.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877110.9142058.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731877111.1489716</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731877113.1529782</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877111.1489716.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877113.1529782.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>595</v>
+      </c>
+      <c r="L117" t="n">
+        <v>596.3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-1.299999999999955</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731877114.1570358</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731877114.5202286</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877114.1570358.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877114.5202286.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>595</v>
+      </c>
+      <c r="L118" t="n">
+        <v>595.7</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731877115.033507</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731877115.69056</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877115.033507.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877115.69056.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>596.4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>595.3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731877115.9858801</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731877117.3000557</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877115.9858801.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.3000557.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="L120" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731877117.3740828</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1731877117.417997</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.3740828.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.417997.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>591</v>
+      </c>
+      <c r="L121" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731877117.435388</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731877117.4762232</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.435388.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.4762232.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="L122" t="n">
+        <v>591</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731877117.4953902</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731877117.7484431</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.4953902.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.7484431.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>591</v>
+      </c>
+      <c r="L123" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731877117.7653978</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1731877118.6237085</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877117.7653978.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877118.6237085.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>590.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-1.400000000000091</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1731877118.669231</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1731877118.9783535</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877118.669231.png</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877118.9783535.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>588.7</v>
+      </c>
+      <c r="L125" t="n">
+        <v>590.3</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.599999999999909</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1731877120.8201287</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1731877121.627941</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877120.8201287.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877121.627941.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>588.7</v>
+      </c>
+      <c r="L126" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.099999999999909</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1731877123.199265</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1731877123.5511456</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877123.199265.png</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877123.5511456.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="L127" t="n">
+        <v>590.9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1731877125.9383523</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731877125.9383523.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>594</v>
+      </c>
+      <c r="L128" t="n">
+        <v>594.6</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +7798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,42 +7841,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.94999999999982</v>
+        <v>-0.1100000000000136</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.618749999999977</v>
+        <v>-0.00647058823529492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5399999999999068</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.03857142857142191</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1500000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1700000000000159</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.01214285714285828</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.500000000000227</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1785714285714448</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-10.59999999999945</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.963636363636314</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.8599999999999998</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00899999999999963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.849999999999966</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2055555555555518</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.05666666666666881</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.6399999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7599999999999909</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1085714285714273</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.071428571428571</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5.60000000000025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.933333333333375</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
